--- a/data/trans_camb/P19C08-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-0.3775664072166054</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.1706716698641873</v>
+        <v>0.1706716698641874</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.3480164018829008</v>
@@ -664,7 +664,7 @@
         <v>-0.4247579129580464</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.04393378982010644</v>
+        <v>-0.04393378982010653</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4860975480635538</v>
+        <v>-0.6066152896969008</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.448061108555391</v>
+        <v>-1.467930410906032</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.311905585539191</v>
+        <v>-1.365412662503005</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.501724066487963</v>
+        <v>-1.188216978336637</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.091117662865926</v>
+        <v>-1.903879596657334</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.104367909690978</v>
+        <v>-0.9922717944842632</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.4791007814260366</v>
+        <v>-0.4500724588794779</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.141781885880489</v>
+        <v>-1.230143915514057</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.9286723071469805</v>
+        <v>-0.74199855013597</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.188169625265558</v>
+        <v>2.847095792594854</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3218448583735173</v>
+        <v>0.3414346930445062</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7248108854604766</v>
+        <v>0.7204418521060726</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6537988500557428</v>
+        <v>0.6592440255148271</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8359409021136511</v>
+        <v>0.8445641906840292</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.873232534531626</v>
+        <v>1.690129522948969</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1455530237761931</v>
+        <v>0.01417891332598512</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5455762670657572</v>
+        <v>0.6139782482444703</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-1</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4520308655697617</v>
+        <v>0.4520308655697619</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.6083451209231973</v>
@@ -769,7 +769,7 @@
         <v>-0.7424920277421088</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.07679783635519556</v>
+        <v>-0.07679783635519571</v>
       </c>
     </row>
     <row r="8">
@@ -781,16 +781,18 @@
       </c>
       <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="inlineStr"/>
-      <c r="E8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.7516418027236287</v>
+        <v>-0.7059059865817869</v>
       </c>
       <c r="J8" s="6" t="inlineStr"/>
       <c r="K8" s="6" t="n">
-        <v>-0.8194592025318246</v>
+        <v>-0.7835377113811545</v>
       </c>
     </row>
     <row r="9">
@@ -807,11 +809,11 @@
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>11.12189952913787</v>
+        <v>8.855386336081068</v>
       </c>
       <c r="J9" s="6" t="inlineStr"/>
       <c r="K9" s="6" t="n">
-        <v>2.901503649956849</v>
+        <v>3.821185267331249</v>
       </c>
     </row>
     <row r="10">
@@ -832,7 +834,7 @@
         <v>-0.6056394218046358</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.2768231909339106</v>
+        <v>-0.2768231909339107</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.832432183131767</v>
@@ -861,31 +863,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.323570577103842</v>
+        <v>-1.325959162372219</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.148306119635333</v>
+        <v>-2.128753576345281</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.557606264513428</v>
+        <v>-1.467168400004006</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.361090076529567</v>
+        <v>-2.403564496598326</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.711131757253177</v>
+        <v>-2.845895552070424</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.551500000132401</v>
+        <v>-2.650389539119792</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.515228327876157</v>
+        <v>-1.417377323285311</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.899071291430383</v>
+        <v>-1.870595921415172</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.701672366081755</v>
+        <v>-1.664297390643243</v>
       </c>
     </row>
     <row r="12">
@@ -896,31 +898,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.817209244093912</v>
+        <v>0.7980726497615397</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5120083304755837</v>
+        <v>0.4569470441269881</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6328135277852622</v>
+        <v>0.6538247182807549</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04299284974501096</v>
+        <v>0.07550439403200383</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1813978647663814</v>
+        <v>0.1655570489384131</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4509597068068322</v>
+        <v>0.3937651174683973</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.1383684545317288</v>
+        <v>-0.1480692206914832</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07602902127468866</v>
+        <v>0.08038168935297091</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +939,7 @@
         <v>-1</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.4570759117843667</v>
+        <v>-0.4570759117843668</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.5781791437156866</v>
@@ -968,19 +970,17 @@
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
-      <c r="F14" s="6" t="inlineStr"/>
+      <c r="F14" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="G14" s="6" t="inlineStr"/>
-      <c r="H14" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.8997975797309886</v>
-      </c>
-      <c r="J14" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.8883902577058452</v>
+      </c>
+      <c r="J14" s="6" t="inlineStr"/>
       <c r="K14" s="6" t="n">
-        <v>-0.9226907005604646</v>
+        <v>-0.9183698963919082</v>
       </c>
     </row>
     <row r="15">
@@ -993,19 +993,17 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
-      <c r="F15" s="6" t="inlineStr"/>
+      <c r="F15" s="6" t="n">
+        <v>3.103533970040245</v>
+      </c>
       <c r="G15" s="6" t="inlineStr"/>
-      <c r="H15" s="6" t="n">
-        <v>1.447263798228916</v>
-      </c>
+      <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>1.548102959426949</v>
-      </c>
-      <c r="J15" s="6" t="n">
-        <v>1.054672805534361</v>
-      </c>
+        <v>1.10171145471933</v>
+      </c>
+      <c r="J15" s="6" t="inlineStr"/>
       <c r="K15" s="6" t="n">
-        <v>0.3790470919389029</v>
+        <v>0.5692557504314411</v>
       </c>
     </row>
     <row r="16">
@@ -1035,7 +1033,7 @@
         <v>1.107697224452198</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.3561989102402157</v>
+        <v>0.3561989102402158</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.3942438992866376</v>
@@ -1061,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3242062125463722</v>
+        <v>0.3431068176147944</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
@@ -1079,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2818012732517721</v>
+        <v>0.2631249604537722</v>
       </c>
     </row>
     <row r="18">
@@ -1090,31 +1088,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.015746411734985</v>
+        <v>1.872741585185191</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.432521429881026</v>
+        <v>1.43146229560133</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.141881585725568</v>
+        <v>2.166760668088599</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.801673618948798</v>
+        <v>2.160710602195257</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.502409126377263</v>
+        <v>5.812474538936942</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.796718735206299</v>
+        <v>2.128018873525793</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.563952183520887</v>
+        <v>1.595821706297558</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.69744397647195</v>
+        <v>1.672605577326773</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.640530699992455</v>
+        <v>1.609656640694938</v>
       </c>
     </row>
     <row r="19">
@@ -1251,31 +1249,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5543947109382494</v>
+        <v>-0.5669170904112868</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.6586203307277536</v>
+        <v>-0.7643688157256431</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.4461690246999821</v>
+        <v>-0.5387198471025422</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3559898051427684</v>
+        <v>-0.3109981600674503</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.8438516422884269</v>
+        <v>-0.8601917328877263</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.4830631330619855</v>
+        <v>-0.4850915071414024</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.3123343570532437</v>
+        <v>-0.2897400145813267</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.5884652478099409</v>
+        <v>-0.535866096909868</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.3366082631696502</v>
+        <v>-0.3129312149544307</v>
       </c>
     </row>
     <row r="24">
@@ -1286,31 +1284,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4419264068630854</v>
+        <v>0.462358965033435</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1435893574508832</v>
+        <v>0.1360219573058233</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9394149917870217</v>
+        <v>0.7628777260279206</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.117423816971957</v>
+        <v>1.250803568473885</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3391123201018106</v>
+        <v>0.3382547076012132</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9428724875868569</v>
+        <v>0.9518433062555935</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.539855993882588</v>
+        <v>0.6005707432928892</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1527625121254174</v>
+        <v>0.1409268441739496</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6675672401225113</v>
+        <v>0.6097806261305776</v>
       </c>
     </row>
     <row r="25">
@@ -1362,11 +1360,11 @@
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>-0.6039077307765329</v>
+        <v>-0.6427110134140304</v>
       </c>
       <c r="J26" s="6" t="inlineStr"/>
       <c r="K26" s="6" t="n">
-        <v>-0.6917438601675153</v>
+        <v>-0.7330489612603435</v>
       </c>
     </row>
     <row r="27">
@@ -1383,11 +1381,11 @@
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>4.376854930315718</v>
+        <v>5.028450259615687</v>
       </c>
       <c r="J27" s="6" t="inlineStr"/>
       <c r="K27" s="6" t="n">
-        <v>5.248390018686444</v>
+        <v>3.610075341491747</v>
       </c>
     </row>
     <row r="28">
@@ -1408,7 +1406,7 @@
         <v>0.2146296563570896</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.8550549960666289</v>
+        <v>0.855054996066629</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.2326092251511829</v>
@@ -1437,7 +1435,7 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4712723730957036</v>
+        <v>0.4742007183469421</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>0</v>
@@ -1446,22 +1444,22 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.549066427450936</v>
+        <v>-1.655092540113517</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.677400209065301</v>
+        <v>-1.794377867710349</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.079961877486481</v>
+        <v>-2.067454485468969</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.670115641850581</v>
+        <v>-0.589807872707977</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.056054178050177</v>
+        <v>-1.006083647626475</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.049384322851311</v>
+        <v>-0.9158224459998641</v>
       </c>
     </row>
     <row r="30">
@@ -1472,31 +1470,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.671687812497306</v>
+        <v>2.671177583341075</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.291519500788016</v>
+        <v>1.16971674018941</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.314313307788544</v>
+        <v>3.178996718291058</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.7613194703797983</v>
+        <v>0.7216277742759734</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.4473861702826801</v>
+        <v>0.4178827612116768</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.01070487996439078</v>
+        <v>0.05375109826513608</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.039583224634471</v>
+        <v>1.06990693654914</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3608261547829518</v>
+        <v>0.3753054637609802</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.6511925159935374</v>
+        <v>0.7066115351669007</v>
       </c>
     </row>
     <row r="31">
@@ -1550,14 +1548,18 @@
       <c r="C32" s="6" t="inlineStr"/>
       <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="inlineStr"/>
-      <c r="F32" s="6" t="inlineStr"/>
+      <c r="F32" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="inlineStr"/>
       <c r="I32" s="6" t="n">
-        <v>-0.763231960531505</v>
+        <v>-0.6870054206771377</v>
       </c>
       <c r="J32" s="6" t="inlineStr"/>
-      <c r="K32" s="6" t="inlineStr"/>
+      <c r="K32" s="6" t="n">
+        <v>-0.9649497141250735</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
@@ -1569,11 +1571,13 @@
       <c r="C33" s="6" t="inlineStr"/>
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="inlineStr"/>
-      <c r="F33" s="6" t="inlineStr"/>
+      <c r="F33" s="6" t="n">
+        <v>6.087820379258559</v>
+      </c>
       <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="inlineStr"/>
       <c r="I33" s="6" t="n">
-        <v>6.967696783487649</v>
+        <v>6.880142631576307</v>
       </c>
       <c r="J33" s="6" t="inlineStr"/>
       <c r="K33" s="6" t="inlineStr"/>
@@ -1625,31 +1629,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.380055727181459</v>
+        <v>-1.386698211127148</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.264524187055764</v>
+        <v>-2.289263263128373</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.848242540525772</v>
+        <v>-2.481950416171076</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.2999392749666102</v>
+        <v>-0.273635477723633</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.8915040047434246</v>
+        <v>-0.9483268209911759</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.3485589404733778</v>
+        <v>-0.3132008545992354</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.2638566994832016</v>
+        <v>-0.2885710048626964</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.8858277654748561</v>
+        <v>-0.8249380071173318</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.4719434199680585</v>
+        <v>-0.37254340244107</v>
       </c>
     </row>
     <row r="36">
@@ -1660,7 +1664,7 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.855292282200357</v>
+        <v>0.8461362072566829</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>0</v>
@@ -1669,22 +1673,22 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.019126496111228</v>
+        <v>1.035552640036784</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-0.09608571534242336</v>
+        <v>-0.09574978220588276</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.9027181293543571</v>
+        <v>0.9173727562828285</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.8759483693883496</v>
+        <v>0.9340692076145251</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-0.1018803183232304</v>
+        <v>-0.08328652668958661</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.5643246902509397</v>
+        <v>0.6200242267156554</v>
       </c>
     </row>
     <row r="37">
@@ -1733,18 +1737,18 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.7793328939687592</v>
+        <v>-0.6562510634178655</v>
       </c>
       <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="n">
-        <v>-0.7662950506008323</v>
+        <v>-0.6870949213671209</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.6106056945814089</v>
+        <v>-0.6124719729112384</v>
       </c>
       <c r="J38" s="6" t="inlineStr"/>
       <c r="K38" s="6" t="n">
-        <v>-0.7770293247301726</v>
+        <v>-0.7530399039361783</v>
       </c>
     </row>
     <row r="39">
@@ -1757,19 +1761,15 @@
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
-      <c r="F39" s="6" t="n">
-        <v>7.513813458713033</v>
-      </c>
+      <c r="F39" s="6" t="inlineStr"/>
       <c r="G39" s="6" t="inlineStr"/>
-      <c r="H39" s="6" t="n">
-        <v>9.255290584371256</v>
-      </c>
+      <c r="H39" s="6" t="inlineStr"/>
       <c r="I39" s="6" t="n">
-        <v>7.225784644253531</v>
+        <v>7.009715605109405</v>
       </c>
       <c r="J39" s="6" t="inlineStr"/>
       <c r="K39" s="6" t="n">
-        <v>4.978670913473445</v>
+        <v>6.632929974533252</v>
       </c>
     </row>
     <row r="40">
@@ -1799,7 +1799,7 @@
         <v>-0.3330061605508447</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-0.08553964483057966</v>
+        <v>-0.08553964483057974</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0.1626740541618126</v>
@@ -1808,7 +1808,7 @@
         <v>-0.2643867233434335</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.03170165055895952</v>
+        <v>0.03170165055895961</v>
       </c>
     </row>
     <row r="41">
@@ -1819,31 +1819,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.1078738816205788</v>
+        <v>-0.06032035470001128</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.4895275317488677</v>
+        <v>-0.4934076042820739</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.2439277119262623</v>
+        <v>-0.179943320322965</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.3341428186229061</v>
+        <v>-0.3337300125432303</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.6895733941151981</v>
+        <v>-0.6706688736965962</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.4527527354693328</v>
+        <v>-0.4384334979509211</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.1438161464773609</v>
+        <v>-0.1121409599716005</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.5029847530917618</v>
+        <v>-0.4791754695177007</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.2159218125076093</v>
+        <v>-0.2106515548088204</v>
       </c>
     </row>
     <row r="42">
@@ -1854,31 +1854,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.7369625146278812</v>
+        <v>0.6923242856300524</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.07668750972219948</v>
+        <v>0.08003419652444348</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.5541715436318113</v>
+        <v>0.5858884971174045</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.4624880554394994</v>
+        <v>0.4745760742549908</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.004760947234892158</v>
+        <v>-0.0124632330180611</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.2316433806704962</v>
+        <v>0.2622099062404292</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.4230800857587436</v>
+        <v>0.4245594702683611</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-0.06082503550200476</v>
+        <v>-0.05371260947787306</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.2782862866259227</v>
+        <v>0.280643159551907</v>
       </c>
     </row>
     <row r="43">
@@ -1904,7 +1904,7 @@
         <v>-0.6160631567990037</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.1582487949731079</v>
+        <v>-0.1582487949731081</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.3641586612108596</v>
@@ -1913,7 +1913,7 @@
         <v>-0.5918504687840497</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.07096663745923429</v>
+        <v>0.07096663745923448</v>
       </c>
     </row>
     <row r="44">
@@ -1924,31 +1924,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2598440324427445</v>
+        <v>-0.2304805964793854</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.913214076590697</v>
+        <v>-0.9268802971291789</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.51239959949965</v>
+        <v>-0.422944342318309</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.4395107231203419</v>
+        <v>-0.4681569404801783</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.8902517287534527</v>
+        <v>-0.8822533261648753</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.5961457739353231</v>
+        <v>-0.592497354727736</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2430083508954261</v>
+        <v>-0.2019084901692877</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.8466904325756733</v>
+        <v>-0.8385037436012277</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.3903972696439633</v>
+        <v>-0.382562447575389</v>
       </c>
     </row>
     <row r="45">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>3.653025287404837</v>
+        <v>3.875287723039806</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5844955768832998</v>
+        <v>0.5974146309348769</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.777145214251724</v>
+        <v>3.431433599392763</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.409963332284195</v>
+        <v>1.511694630742793</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1888794409196909</v>
+        <v>0.06773854424239245</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.7450501410172535</v>
+        <v>0.8008580102177963</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.315116876845113</v>
+        <v>1.441794155851241</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.1605527575439391</v>
+        <v>-0.114232039172081</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.8538467245596406</v>
+        <v>0.8704947975845548</v>
       </c>
     </row>
     <row r="46">
